--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1484,17 +1484,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:J"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G153" activeCellId="0" sqref="G153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.68"/>
@@ -5646,6 +5646,12 @@
         <v>4.8310584</v>
       </c>
     </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G153" s="0" t="n">
+        <f aca="false">SUM(G2:G151)</f>
+        <v>2392</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1484,13 +1484,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G153" activeCellId="0" sqref="G153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
@@ -5646,12 +5646,6 @@
         <v>4.8310584</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G153" s="0" t="n">
-        <f aca="false">SUM(G2:G151)</f>
-        <v>2392</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
